--- a/黑色/玻璃/eta/纯碱开工率Non-Seasonal_月度数据.xlsx
+++ b/黑色/玻璃/eta/纯碱开工率Non-Seasonal_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>87.5</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>90.09999999999999</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -482,7 +482,7 @@
         <v>92.09999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>89.40000000000001</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +508,7 @@
         <v>86.3</v>
       </c>
       <c r="C6" t="n">
-        <v>85.09999999999999</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -599,7 +599,7 @@
         <v>84.59999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>84.5</v>
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -612,7 +612,7 @@
         <v>85.09999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>85.09999999999999</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -651,7 +651,7 @@
         <v>83.40000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="18">
@@ -664,7 +664,7 @@
         <v>88.40000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>88.09999999999999</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="19">
